--- a/projet/dictionnaire.xlsx
+++ b/projet/dictionnaire.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
   <si>
     <t>STAGIAIRE</t>
   </si>
@@ -74,9 +74,6 @@
     <t>dateFinStage DATE</t>
   </si>
   <si>
-    <t>horaireFinDej TIME</t>
-  </si>
-  <si>
     <t>lieuRealisation VARCHAR(30)</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>travauxDang BOOL</t>
   </si>
   <si>
-    <t>libelleTravDang VARCHAR(50)</t>
-  </si>
-  <si>
     <t>dateDeclarationDerog DATE</t>
   </si>
   <si>
@@ -119,27 +113,9 @@
     <t>objectifsAcquisition VARCHAR(15)</t>
   </si>
   <si>
-    <t>comportementMt VARCHAR(10)</t>
-  </si>
-  <si>
-    <t>satisfactionEnt TEXT</t>
-  </si>
-  <si>
-    <t>perspectiveEmb VARCHAR(10)</t>
-  </si>
-  <si>
-    <t>libelleComportementPro VARCHAR(50)</t>
-  </si>
-  <si>
     <t>evalComportement INT</t>
   </si>
   <si>
-    <t>libelleAcquis VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>acquis VARCHAR(20)</t>
-  </si>
-  <si>
     <t>dateEvaluation DATE</t>
   </si>
   <si>
@@ -236,9 +212,6 @@
     <t>nomVisiteur VARCHAR(50)</t>
   </si>
   <si>
-    <t>horaireDebutDej TIME</t>
-  </si>
-  <si>
     <t>remarqueEnt  TEXT</t>
   </si>
   <si>
@@ -251,9 +224,6 @@
     <t>libelle Attestation Formation Reglementaire</t>
   </si>
   <si>
-    <t>libelle Travaux Dangereux</t>
-  </si>
-  <si>
     <t>Travaux Dangereux</t>
   </si>
   <si>
@@ -290,9 +260,6 @@
     <t>horaireDebutJour6 TIME</t>
   </si>
   <si>
-    <t>horaireDebutJour7 TIME</t>
-  </si>
-  <si>
     <t>horaireFinJour2 TIME</t>
   </si>
   <si>
@@ -308,7 +275,130 @@
     <t>horaireFinJour6 TIME</t>
   </si>
   <si>
-    <t>horaireFinJour7 TIME</t>
+    <t>horaireDebutDej1 TIME</t>
+  </si>
+  <si>
+    <t>horaireDebutDej2 TIME</t>
+  </si>
+  <si>
+    <t>horaireDebutDej3 TIME</t>
+  </si>
+  <si>
+    <t>horaireDebutDej4 TIME</t>
+  </si>
+  <si>
+    <t>horaireDebutDej5 TIME</t>
+  </si>
+  <si>
+    <t>horaireDebutDej6 TIME</t>
+  </si>
+  <si>
+    <t>horaireFinDej1 TIME</t>
+  </si>
+  <si>
+    <t>horaireFinDej2 TIME</t>
+  </si>
+  <si>
+    <t>horaireFinDej3 TIME</t>
+  </si>
+  <si>
+    <t>horaireFinDej4 TIME</t>
+  </si>
+  <si>
+    <t>horaireFinDej5 TIME</t>
+  </si>
+  <si>
+    <t>horaireFinDej6 TIME</t>
+  </si>
+  <si>
+    <t>comportementMt INT</t>
+  </si>
+  <si>
+    <t>satisfactionEnt INT</t>
+  </si>
+  <si>
+    <t>perspectiveEmb INT</t>
+  </si>
+  <si>
+    <t>libelleAcquis1 VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>libelleAcquis2 VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>libelleAcquis3 VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>libelleAcquis4 VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>libelleAcquis5 VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>libelleAcquis6 VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>libelleAcquis7 VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>libelleAcquis8 VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>libelleAcquis9 VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>libelleAcquis10 VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>acquis1 VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>acquis2 VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>acquis3 VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>acquis4 VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>acquis5 VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>acquis6 VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>acquis7 VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>acquis8 VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>acquis9 VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>acquis10 VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>repTravauxDang1 INT</t>
+  </si>
+  <si>
+    <t>repTravauxDang2 INT</t>
+  </si>
+  <si>
+    <t>repTravauxDang3 INT</t>
+  </si>
+  <si>
+    <t>repTravauxDang4 INT</t>
+  </si>
+  <si>
+    <t>repTravauxDang5 INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repTravauxDang6 INT </t>
+  </si>
+  <si>
+    <t>autreRepTravauxDang VARCHAR(50)</t>
   </si>
 </sst>
 </file>
@@ -380,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -450,6 +540,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -471,11 +570,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -489,28 +610,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I47"/>
+  <dimension ref="B3:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,30 +949,30 @@
       <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>72</v>
+      <c r="I3" s="19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -858,12 +982,12 @@
         <v>7</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -873,362 +997,549 @@
         <v>8</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="F11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="7"/>
+      <c r="H14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>40</v>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="7"/>
+      <c r="H15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H19" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H36" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H28" s="15" t="s">
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H29" s="15" t="s">
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H30" s="15" t="s">
+      <c r="I38" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H39" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H31" s="15" t="s">
+      <c r="I39" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H40" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H32" s="15" t="s">
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H41" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H33" s="15" t="s">
+      <c r="I41" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H42" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H34" s="15" t="s">
+      <c r="I42" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H43" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H35" s="15" t="s">
+      <c r="I43" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H44" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I35" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H36" s="15" t="s">
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H45" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H37" s="15" t="s">
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H46" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H38" s="15" t="s">
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H47" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H48" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H49" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H50" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H51" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H40" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H41" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H42" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H43" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H44" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H45" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H46" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H47" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" s="6"/>
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H52" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H53" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H54" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H55" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H56" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I56" s="13"/>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H57" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H58" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H59" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I59" s="13"/>
+    </row>
+    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H60" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" s="13"/>
+    </row>
+    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H61" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I61" s="13"/>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H62" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I62" s="13"/>
+    </row>
+    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H63" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I63" s="13"/>
+    </row>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H64" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I64" s="13"/>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H65" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I65" s="13"/>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H66" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I66" s="13"/>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H67" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I67" s="13"/>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H68" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I68" s="13"/>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H69" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I69" s="13"/>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H70" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I70" s="13"/>
+    </row>
+    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H71" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I71" s="13"/>
+    </row>
+    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H72" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I72" s="13"/>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H73" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I73" s="13"/>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H74" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I74" s="13"/>
+    </row>
+    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H75" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I75" s="13"/>
+    </row>
+    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H76" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I76" s="13"/>
+    </row>
+    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H77" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I77" s="13"/>
+    </row>
+    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H78" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I78" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
